--- a/U-Match Proe(3).xlsx
+++ b/U-Match Proe(3).xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10935" activeTab="1"/>
+    <workbookView windowWidth="19395" windowHeight="13275" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="能力" sheetId="1" r:id="rId1"/>
     <sheet name="壳体" sheetId="2" r:id="rId2"/>
-    <sheet name="风机-电机" sheetId="3" r:id="rId3"/>
+    <sheet name="风机" sheetId="3" r:id="rId3"/>
     <sheet name="能效" sheetId="4" r:id="rId4"/>
     <sheet name="风机-风叶-蜗壳组合" sheetId="5" r:id="rId5"/>
     <sheet name="电器盒" sheetId="6" r:id="rId6"/>
     <sheet name="换热器" sheetId="7" r:id="rId7"/>
-    <sheet name="规则" sheetId="8" r:id="rId8"/>
+    <sheet name="condition" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>能力</t>
   </si>
@@ -59,147 +59,147 @@
     <t>参考机型</t>
   </si>
   <si>
+    <t>座吊机</t>
+  </si>
+  <si>
+    <t>1000*620*200</t>
+  </si>
+  <si>
+    <t>2000-3200</t>
+  </si>
+  <si>
+    <t>1000*768*285</t>
+  </si>
+  <si>
+    <t>75/166/188</t>
+  </si>
+  <si>
+    <t>GTH24K3HI</t>
+  </si>
+  <si>
+    <t>1200*665*235</t>
+  </si>
+  <si>
+    <t>1300*768*285</t>
+  </si>
+  <si>
+    <t>96/243/216</t>
+  </si>
+  <si>
+    <t>GTH36K3HI</t>
+  </si>
+  <si>
+    <t>1570*665*235</t>
+  </si>
+  <si>
+    <t>1670*768*285</t>
+  </si>
+  <si>
+    <t>80/189/168</t>
+  </si>
+  <si>
+    <t>GTH48K3HI</t>
+  </si>
+  <si>
+    <t>电机编码</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>电源电压V</t>
+  </si>
+  <si>
+    <t>电源频率Hz</t>
+  </si>
+  <si>
+    <t>输入功率W</t>
+  </si>
+  <si>
+    <t>高档转速RPM</t>
+  </si>
+  <si>
     <t>壳体大小</t>
   </si>
   <si>
-    <t>座吊机</t>
-  </si>
-  <si>
-    <t>1000*620*200</t>
-  </si>
-  <si>
-    <t>2000-3200</t>
-  </si>
-  <si>
-    <t>1000*768*285</t>
-  </si>
-  <si>
-    <t>75/166/188</t>
-  </si>
-  <si>
-    <t>GTH24K3HI</t>
+    <t>FN75A</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>220-240/50 208-230/60</t>
+  </si>
+  <si>
+    <t>50/60</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>FG150A-ZL</t>
+  </si>
+  <si>
+    <t>直流</t>
+  </si>
+  <si>
+    <t>176-373</t>
+  </si>
+  <si>
+    <t>FN150B</t>
+  </si>
+  <si>
+    <t>FN100G</t>
+  </si>
+  <si>
+    <t>FN180A-1</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>FN180A</t>
+  </si>
+  <si>
+    <t>FN150A</t>
+  </si>
+  <si>
+    <t>FG250A-ZL</t>
+  </si>
+  <si>
+    <t>能效</t>
+  </si>
+  <si>
+    <t>风叶编码</t>
+  </si>
+  <si>
+    <t>蜗壳编码</t>
+  </si>
+  <si>
+    <t>最大风量</t>
+  </si>
+  <si>
+    <t>噪音数据</t>
+  </si>
+  <si>
+    <t>103003000001</t>
+  </si>
+  <si>
+    <t>200230000002/200230000001</t>
+  </si>
+  <si>
+    <t>电器盒部件编码</t>
+  </si>
+  <si>
+    <t>变频</t>
   </si>
   <si>
     <t>小</t>
   </si>
   <si>
-    <t>1200*665*235</t>
-  </si>
-  <si>
-    <t>1300*768*285</t>
-  </si>
-  <si>
-    <t>96/243/216</t>
-  </si>
-  <si>
-    <t>GTH36K3HI</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>1570*665*235</t>
-  </si>
-  <si>
-    <t>1670*768*285</t>
-  </si>
-  <si>
-    <t>80/189/168</t>
-  </si>
-  <si>
-    <t>GTH48K3HI</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>电机编码</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>电源电压V</t>
-  </si>
-  <si>
-    <t>电源频率Hz</t>
-  </si>
-  <si>
-    <t>输入功率W</t>
-  </si>
-  <si>
-    <t>高档转速RPM</t>
-  </si>
-  <si>
-    <t>FN75A</t>
-  </si>
-  <si>
-    <t>交流</t>
-  </si>
-  <si>
-    <t>220-240/50 208-230/60</t>
-  </si>
-  <si>
-    <t>50/60</t>
-  </si>
-  <si>
-    <t>FG150A-ZL</t>
-  </si>
-  <si>
-    <t>直流</t>
-  </si>
-  <si>
-    <t>176-373</t>
-  </si>
-  <si>
-    <t>FN150B</t>
-  </si>
-  <si>
-    <t>FN100G</t>
-  </si>
-  <si>
-    <t>FN180A-1</t>
-  </si>
-  <si>
-    <t>FN180A</t>
-  </si>
-  <si>
-    <t>FN150A</t>
-  </si>
-  <si>
-    <t>FG250A-ZL</t>
-  </si>
-  <si>
-    <t>能效</t>
-  </si>
-  <si>
-    <t>风叶编码</t>
-  </si>
-  <si>
-    <t>蜗壳编码</t>
-  </si>
-  <si>
-    <t>最大风量</t>
-  </si>
-  <si>
-    <t>噪音数据</t>
-  </si>
-  <si>
-    <t>103003000001</t>
-  </si>
-  <si>
-    <t>200230000002/200230000001</t>
-  </si>
-  <si>
-    <t>电器盒部件编码</t>
-  </si>
-  <si>
-    <t>变频</t>
-  </si>
-  <si>
     <t>壳体编码</t>
   </si>
   <si>
@@ -281,7 +281,70 @@
     <t>rule</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
     <t>context</t>
+  </si>
+  <si>
+    <t>3500-6000</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>壳体</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>5000-6000</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>6000-8500</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>8500-12500</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>12500-17500</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>风机</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>电器盒</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>换热器</t>
   </si>
 </sst>
 </file>
@@ -290,11 +353,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,89 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,19 +395,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,19 +417,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,9 +447,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,17 +727,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,6 +741,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,23 +778,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,9 +819,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,156 +832,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -947,13 +989,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,13 +1348,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1321,17 +1363,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>24000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>36000</v>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1400,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1359,7 +1416,7 @@
     <col min="12" max="12" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1393,54 +1450,48 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:11">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2">
+        <v>3500</v>
+      </c>
+      <c r="D2">
+        <v>6000</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2">
+        <v>2016</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="J2" s="3">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -1449,16 +1500,16 @@
         <v>12500</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>2016</v>
@@ -1467,18 +1518,15 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>8500</v>
@@ -1487,16 +1535,16 @@
         <v>17500</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>2016</v>
@@ -1505,10 +1553,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1569,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1535,31 +1580,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1567,16 +1612,16 @@
         <v>15709408</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -1585,7 +1630,7 @@
         <v>1025</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1593,16 +1638,16 @@
         <v>15705200005</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -1611,7 +1656,7 @@
         <v>1350</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1619,16 +1664,16 @@
         <v>15709407</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -1637,7 +1682,7 @@
         <v>1280</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1645,16 +1690,16 @@
         <v>150101000056</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1663,7 +1708,7 @@
         <v>1300</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1671,16 +1716,16 @@
         <v>15709405</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>250</v>
@@ -1689,7 +1734,7 @@
         <v>1500</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1697,16 +1742,16 @@
         <v>15012404</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>180</v>
@@ -1715,7 +1760,7 @@
         <v>1320</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1723,16 +1768,16 @@
         <v>15012405</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>85</v>
@@ -1741,7 +1786,7 @@
         <v>1100</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1749,16 +1794,16 @@
         <v>15709400005</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>250</v>
@@ -1767,7 +1812,7 @@
         <v>1500</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1789,11 +1834,11 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1820,7 +1865,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1831,24 +1876,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
       <c r="C2">
         <v>2750</v>
@@ -1880,16 +1925,16 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:4">
@@ -1897,13 +1942,13 @@
         <v>1399400149</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1911,13 +1956,13 @@
         <v>1399400148</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
@@ -1925,13 +1970,13 @@
         <v>1399400147</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1943,10 +1988,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1955,7 +2000,7 @@
     <col min="14" max="14" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1998,8 +2043,11 @@
       <c r="N1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2039,8 +2087,11 @@
       <c r="N2">
         <v>5300</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2080,8 +2131,11 @@
       <c r="N3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2121,8 +2175,11 @@
       <c r="N4">
         <v>8800</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2162,8 +2219,11 @@
       <c r="N5">
         <v>12500</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2203,8 +2263,11 @@
       <c r="N6">
         <v>14200</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2243,6 +2306,9 @@
       </c>
       <c r="N7">
         <v>17600</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="7:7">
@@ -2260,15 +2326,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2280,6 +2349,247 @@
       </c>
       <c r="D1" t="s">
         <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/U-Match Proe(3).xlsx
+++ b/U-Match Proe(3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="13275" activeTab="7"/>
+    <workbookView windowWidth="23895" windowHeight="10935" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="能力" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>能力</t>
   </si>
@@ -122,9 +122,6 @@
     <t>高档转速RPM</t>
   </si>
   <si>
-    <t>壳体大小</t>
-  </si>
-  <si>
     <t>FN75A</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>50/60</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>FG150A-ZL</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>FN180A-1</t>
   </si>
   <si>
-    <t>大</t>
-  </si>
-  <si>
     <t>FN180A</t>
   </si>
   <si>
@@ -197,12 +188,6 @@
     <t>变频</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>壳体编码</t>
-  </si>
-  <si>
     <t>换热器组件编码</t>
   </si>
   <si>
@@ -233,18 +218,12 @@
     <t>仿真性能W</t>
   </si>
   <si>
-    <t>成本￥</t>
-  </si>
-  <si>
     <t>实测能力下限W</t>
   </si>
   <si>
     <t>实测能力上限W</t>
   </si>
   <si>
-    <t>新座吊机(中)</t>
-  </si>
-  <si>
     <t>aaaaa</t>
   </si>
   <si>
@@ -260,18 +239,12 @@
     <t>ddddd</t>
   </si>
   <si>
-    <t>新座吊机(大)</t>
-  </si>
-  <si>
     <t>eeeee</t>
   </si>
   <si>
     <t>fffff</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>execute</t>
   </si>
   <si>
@@ -284,10 +257,13 @@
     <t>tag</t>
   </si>
   <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>3500-6000</t>
+    <t>content</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>[3499~5000]</t>
   </si>
   <si>
     <t>enable</t>
@@ -299,52 +275,94 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>5000-6000</t>
+    <t>[小壳体]</t>
+  </si>
+  <si>
+    <t>[4999~6000]</t>
   </si>
   <si>
     <t>[1,2]</t>
   </si>
   <si>
-    <t>6000-8500</t>
+    <t>[小壳体,中壳体]</t>
+  </si>
+  <si>
+    <t>[5999~8500]</t>
   </si>
   <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>8500-12500</t>
+    <t>[中壳体]</t>
+  </si>
+  <si>
+    <t>[8499~12500]</t>
   </si>
   <si>
     <t>[2,3]</t>
   </si>
   <si>
-    <t>12500-17500</t>
+    <t>[中壳体,大壳体]</t>
+  </si>
+  <si>
+    <t>[12499~17500]</t>
   </si>
   <si>
     <t>[3]</t>
   </si>
   <si>
+    <t>[大壳体]</t>
+  </si>
+  <si>
     <t>风机</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>[1,2,3,4]</t>
   </si>
   <si>
+    <t>[15709408,15705200005,15709407,1.50101E+11]</t>
+  </si>
+  <si>
+    <t>[5,6,7,8]15709405,15012404,15012405,15709400005</t>
+  </si>
+  <si>
+    <t>[15709405,15012404,15012405,15709400005]</t>
+  </si>
+  <si>
+    <t>电器盒</t>
+  </si>
+  <si>
+    <t>[1399400147]</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>[1399400149,1399400147]</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>[1399400149,1399400148,1399400147]</t>
+  </si>
+  <si>
+    <t>换热器</t>
+  </si>
+  <si>
+    <t>[aaaaa,bbbbb,ccccc,ddddd]</t>
+  </si>
+  <si>
     <t>[5,6]</t>
   </si>
   <si>
-    <t>电器盒</t>
-  </si>
-  <si>
-    <t>[1,3]</t>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>换热器</t>
+    <t>[eeeee,fffff]</t>
   </si>
 </sst>
 </file>
@@ -352,12 +370,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -388,8 +406,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -424,53 +450,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,10 +474,48 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,7 +527,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -548,25 +573,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,19 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,91 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +770,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -760,6 +794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,24 +814,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,8 +836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,167 +860,170 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1379,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1403,7 +1431,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1566,19 +1594,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="12.625"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1603,25 +1631,22 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>15709408</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -1629,25 +1654,22 @@
       <c r="G2">
         <v>1025</v>
       </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>15705200005</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -1655,25 +1677,22 @@
       <c r="G3">
         <v>1350</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>15709407</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -1681,25 +1700,22 @@
       <c r="G4">
         <v>1280</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>150101000056</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1707,25 +1723,22 @@
       <c r="G5">
         <v>1300</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>15709405</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
       </c>
       <c r="F6">
         <v>250</v>
@@ -1733,25 +1746,22 @@
       <c r="G6">
         <v>1500</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>15012404</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
       </c>
       <c r="F7">
         <v>180</v>
@@ -1759,25 +1769,22 @@
       <c r="G7">
         <v>1320</v>
       </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>15012405</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
       <c r="F8">
         <v>85</v>
@@ -1785,34 +1792,28 @@
       <c r="G8">
         <v>1100</v>
       </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>15709400005</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>250</v>
       </c>
       <c r="G9">
         <v>1500</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1834,11 +1835,11 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1866,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1876,24 +1877,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2">
         <v>2750</v>
@@ -1911,21 +1912,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -1933,50 +1933,38 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:4">
+    </row>
+    <row r="2" customFormat="1" spans="1:3">
       <c r="A2">
         <v>1399400149</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
       <c r="A3">
         <v>1399400148</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
       <c r="A4">
         <v>1399400147</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1988,92 +1976,82 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
+        <v>1.4</v>
+      </c>
+      <c r="G2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <v>1.4</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>5300</v>
       </c>
       <c r="J2">
         <v>5300</v>
@@ -2081,43 +2059,37 @@
       <c r="K2">
         <v>5300</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>5300</v>
       </c>
-      <c r="N2">
-        <v>5300</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>1.4</v>
+      </c>
+      <c r="G3">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>1.4</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>7000</v>
       </c>
       <c r="J3">
         <v>7000</v>
@@ -2125,43 +2097,37 @@
       <c r="K3">
         <v>7000</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>7000</v>
       </c>
-      <c r="N3">
-        <v>7000</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
+      </c>
+      <c r="G4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>1.4</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>8800</v>
       </c>
       <c r="J4">
         <v>8800</v>
@@ -2169,43 +2135,37 @@
       <c r="K4">
         <v>8800</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>8800</v>
       </c>
-      <c r="N4">
-        <v>8800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>1.4</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>1.4</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>12500</v>
       </c>
       <c r="J5">
         <v>12500</v>
@@ -2213,43 +2173,37 @@
       <c r="K5">
         <v>12500</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>12500</v>
       </c>
-      <c r="N5">
-        <v>12500</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>75</v>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <v>1.6</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>14200</v>
       </c>
       <c r="J6">
         <v>14200</v>
@@ -2257,43 +2211,37 @@
       <c r="K6">
         <v>14200</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>14200</v>
       </c>
-      <c r="N6">
-        <v>14200</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>75</v>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>1.6</v>
       </c>
       <c r="G7">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>17600</v>
       </c>
       <c r="J7">
         <v>17600</v>
@@ -2301,19 +2249,8 @@
       <c r="K7">
         <v>17600</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <v>17600</v>
-      </c>
-      <c r="N7">
-        <v>17600</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2326,270 +2263,316 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="11.5"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="6" max="6" width="51.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/U-Match Proe(3).xlsx
+++ b/U-Match Proe(3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10935" activeTab="7"/>
+    <workbookView windowWidth="19305" windowHeight="8385" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="能力" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>能力</t>
   </si>
@@ -59,7 +62,7 @@
     <t>参考机型</t>
   </si>
   <si>
-    <t>座吊机</t>
+    <t>小型座吊机外壳</t>
   </si>
   <si>
     <t>1000*620*200</t>
@@ -77,6 +80,9 @@
     <t>GTH24K3HI</t>
   </si>
   <si>
+    <t>中型座吊机外壳</t>
+  </si>
+  <si>
     <t>1200*665*235</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>GTH36K3HI</t>
   </si>
   <si>
+    <t>大型座吊机外壳</t>
+  </si>
+  <si>
     <t>1570*665*235</t>
   </si>
   <si>
@@ -272,45 +281,45 @@
     <t>壳体</t>
   </si>
   <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[小壳体]</t>
+  </si>
+  <si>
+    <t>[4999~6000]</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[小壳体,中壳体]</t>
+  </si>
+  <si>
+    <t>[5999~8500]</t>
+  </si>
+  <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[小壳体]</t>
-  </si>
-  <si>
-    <t>[4999~6000]</t>
+    <t>[中壳体]</t>
+  </si>
+  <si>
+    <t>[8499~12500]</t>
   </si>
   <si>
     <t>[1,2]</t>
   </si>
   <si>
-    <t>[小壳体,中壳体]</t>
-  </si>
-  <si>
-    <t>[5999~8500]</t>
+    <t>[中壳体,大壳体]</t>
+  </si>
+  <si>
+    <t>[12499~17500]</t>
   </si>
   <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>[中壳体]</t>
-  </si>
-  <si>
-    <t>[8499~12500]</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>[中壳体,大壳体]</t>
-  </si>
-  <si>
-    <t>[12499~17500]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
     <t>[大壳体]</t>
   </si>
   <si>
@@ -323,13 +332,13 @@
     <t>无</t>
   </si>
   <si>
-    <t>[1,2,3,4]</t>
+    <t>[0,1,2,3]</t>
   </si>
   <si>
     <t>[15709408,15705200005,15709407,1.50101E+11]</t>
   </si>
   <si>
-    <t>[5,6,7,8]15709405,15012404,15012405,15709400005</t>
+    <t>[4,5,6,7]15709405,15012404,15012405,15709400005</t>
   </si>
   <si>
     <t>[15709405,15012404,15012405,15709400005]</t>
@@ -341,13 +350,13 @@
     <t>[1399400147]</t>
   </si>
   <si>
-    <t>[1,3]</t>
+    <t>[0,2]</t>
   </si>
   <si>
     <t>[1399400149,1399400147]</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
+    <t>[0,1,2]</t>
   </si>
   <si>
     <t>[1399400149,1399400148,1399400147]</t>
@@ -359,7 +368,7 @@
     <t>[aaaaa,bbbbb,ccccc,ddddd]</t>
   </si>
   <si>
-    <t>[5,6]</t>
+    <t>[4,5]</t>
   </si>
   <si>
     <t>[eeeee,fffff]</t>
@@ -370,19 +379,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,37 +397,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,53 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,9 +429,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,15 +444,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,10 +478,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,187 +563,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +754,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,9 +792,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,15 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,37 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,173 +859,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,47 +1375,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -1428,10 +1435,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1444,9 +1451,9 @@
     <col min="12" max="12" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1478,110 +1485,122 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:11">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:12">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>3500</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6000</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
         <v>2016</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3">
+        <v>12500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>2016</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>8500</v>
+      </c>
+      <c r="E4">
+        <v>17500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>2016</v>
+      </c>
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>5000</v>
-      </c>
-      <c r="D3">
-        <v>12500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>2016</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>8500</v>
-      </c>
-      <c r="D4">
-        <v>17500</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>2016</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1594,225 +1613,252 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625"/>
+    <col min="1" max="2" width="12.625"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>15709408</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
         <v>75</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1025</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>15705200005</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15709407</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
+      <c r="G4">
         <v>150</v>
       </c>
-      <c r="G3">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>15709407</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>150</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>1280</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>150101000056</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15709405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>15709405</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15012404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15012405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15709400005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
         <v>250</v>
       </c>
-      <c r="G6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>15012404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>180</v>
-      </c>
-      <c r="G7">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>15012405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>15709400005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>250</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>1500</v>
       </c>
     </row>
@@ -1825,31 +1871,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
@@ -1863,43 +1921,49 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
         <v>2750</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>52</v>
       </c>
     </row>
@@ -1912,58 +1976,71 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:3">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1399400149</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:3">
+    <row r="3" customFormat="1" spans="1:4">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1399400148</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:3">
+    <row r="4" customFormat="1" spans="1:4">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1399400147</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
         <v>50</v>
       </c>
     </row>
@@ -1976,82 +2053,85 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
         <v>1.4</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5300</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5300</v>
@@ -2062,34 +2142,37 @@
       <c r="L2">
         <v>5300</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
+      <c r="M2">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
         <v>1.4</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>7000</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>7000</v>
@@ -2100,34 +2183,37 @@
       <c r="L3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
+      <c r="M3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
         <v>1.4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>8800</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>8800</v>
@@ -2138,34 +2224,37 @@
       <c r="L4">
         <v>8800</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="M4">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>12500</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>12500</v>
@@ -2176,34 +2265,37 @@
       <c r="L5">
         <v>12500</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6">
+      <c r="M5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
         <v>1.6</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>14200</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>14200</v>
@@ -2214,34 +2306,37 @@
       <c r="L6">
         <v>14200</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
+      <c r="M6">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
         <v>1.6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>17600</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>17600</v>
@@ -2250,6 +2345,9 @@
         <v>17600</v>
       </c>
       <c r="L7">
+        <v>17600</v>
+      </c>
+      <c r="M7">
         <v>17600</v>
       </c>
     </row>
@@ -2266,7 +2364,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2277,302 +2375,302 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/U-Match Proe(3).xlsx
+++ b/U-Match Proe(3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="8385" activeTab="7"/>
+    <workbookView windowWidth="15885" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="能力" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -414,8 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,8 +437,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,41 +480,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,14 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,18 +531,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -563,187 +563,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,11 +757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,6 +777,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,41 +824,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,8 +849,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,155 +859,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,8 +1377,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2363,7 +2363,7 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
